--- a/Unity/GameData/DataTables/UITable.xlsx
+++ b/Unity/GameData/DataTables/UITable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>BackgroundUI</t>
+  </si>
+  <si>
+    <t>UIGameForm</t>
+  </si>
+  <si>
+    <t>CommonUI</t>
   </si>
 </sst>
 </file>
@@ -1231,13 +1237,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1322,6 +1328,23 @@
       </c>
       <c r="G5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
